--- a/WinCTB_CTS.Module/Resources/TabelaAuxiliarEstrutura.xlsx
+++ b/WinCTB_CTS.Module/Resources/TabelaAuxiliarEstrutura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1005d3dea9f9e1d1/03 - NOTEBOOK/11-EBR/Controltub EBR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\WinCTB-CTS\WinCTB_CTS.Module\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{96F93823-5AEE-458C-89FB-7B15239D0936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0E424BA-2D59-4459-B7FC-A30DBEA3B04A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C93FB-C814-4EC0-BE8B-FE4AEFBA1728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4A632C07-A95C-453E-BB47-8D919548E046}"/>
+    <workbookView xWindow="33765" yWindow="1530" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{4A632C07-A95C-453E-BB47-8D919548E046}"/>
   </bookViews>
   <sheets>
     <sheet name="Contrato" sheetId="2" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>Módulo</t>
-  </si>
-  <si>
     <t>TS061</t>
   </si>
   <si>
@@ -80,13 +77,16 @@
   </si>
   <si>
     <t>6P1</t>
+  </si>
+  <si>
+    <t>Modulo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,9 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80208D-8716-4252-80D4-64D04BCD4A11}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -519,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0.15</v>
@@ -539,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>0.15</v>
@@ -559,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -579,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -599,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -619,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -634,7 +643,11 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="505" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>